--- a/QBTS.xlsx
+++ b/QBTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D9ECAF-CF16-48AE-B9E0-B6C0B1A8B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DCE46-3D14-4D3E-9A86-A7F80B4CB242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="1960" windowWidth="23690" windowHeight="11080" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
+    <workbookView xWindow="49190" yWindow="2640" windowWidth="23470" windowHeight="16810" activeTab="1" xr2:uid="{023094E3-E1C0-4108-8BD9-8EDCA3D810D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Price</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>QAOA</t>
+  </si>
+  <si>
+    <t>Cash/Shr</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F519C58F-560C-4ADB-A46B-8738912F1791}">
-  <dimension ref="K2:M10"/>
+  <dimension ref="K2:M12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -707,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>13.24</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.25">
@@ -715,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>286</v>
+        <v>346.71858099999997</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.25">
@@ -727,7 +730,7 @@
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>3786.64</v>
+        <v>7752.627471159999</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -736,10 +739,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>304.32100000000003</v>
+        <v>836.23099999999999</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.25">
@@ -747,10 +750,11 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>30.367000000000001</v>
+        <f>32.054+0.144</f>
+        <v>32.198</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="11:13" x14ac:dyDescent="0.25">
@@ -759,7 +763,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>3512.6860000000001</v>
+        <v>6948.5944711599996</v>
       </c>
     </row>
     <row r="9" spans="11:13" x14ac:dyDescent="0.25">
@@ -782,6 +786,15 @@
       </c>
       <c r="M10" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="2">
+        <f>+L5/L3</f>
+        <v>2.4118436271519008</v>
       </c>
     </row>
   </sheetData>
@@ -793,11 +806,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF8220-2C4E-40EE-8452-F9F198344058}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q8:V9"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1001,10 +1014,10 @@
         <v>15001</v>
       </c>
       <c r="T5" s="8">
-        <v>2000</v>
+        <v>3095</v>
       </c>
       <c r="U5" s="8">
-        <v>2000</v>
+        <v>3739</v>
       </c>
       <c r="V5" s="8">
         <v>2000</v>
@@ -1065,8 +1078,12 @@
       <c r="S6" s="5">
         <v>1124</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="T6" s="5">
+        <v>1119</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1070</v>
+      </c>
       <c r="V6" s="5"/>
       <c r="Y6" s="5">
         <v>2923</v>
@@ -1128,8 +1145,14 @@
         <f>+S5-S6</f>
         <v>13877</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="T7" s="5">
+        <f>+T5-T6</f>
+        <v>1976</v>
+      </c>
+      <c r="U7" s="5">
+        <f>+U5-U6</f>
+        <v>2669</v>
+      </c>
       <c r="V7" s="5"/>
       <c r="Y7" s="5">
         <f>+Y5-Y6</f>
@@ -1185,7 +1208,9 @@
         <v>10288</v>
       </c>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="U8" s="5">
+        <v>14075</v>
+      </c>
       <c r="V8" s="5"/>
       <c r="Y8" s="5">
         <v>32101</v>
@@ -1240,7 +1265,9 @@
         <v>7957</v>
       </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="U9" s="5">
+        <v>9383</v>
+      </c>
       <c r="V9" s="5"/>
       <c r="Y9" s="5">
         <v>21539</v>
@@ -1295,7 +1322,9 @@
         <v>6923</v>
       </c>
       <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="U10" s="5">
+        <v>6947</v>
+      </c>
       <c r="V10" s="5"/>
       <c r="Y10" s="5">
         <v>10068</v>
@@ -1357,9 +1386,18 @@
         <f t="shared" si="4"/>
         <v>25168</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="T11" s="5">
+        <f t="shared" ref="T11:V11" si="5">SUM(T8:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="5"/>
+        <v>30405</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Y11" s="5">
         <f>SUM(Y8:Y10)</f>
         <v>63708</v>
@@ -1386,44 +1424,53 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:Q12" si="5">+K7-K11</f>
+        <f t="shared" ref="K12:Q12" si="6">+K7-K11</f>
         <v>-24690</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-20907</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-18407</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-16418</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-17516</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-18839</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-20636</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" ref="R12:S12" si="6">+R7-R11</f>
+        <f t="shared" ref="R12:S12" si="7">+R7-R11</f>
         <v>-20232</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11291</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="T12" s="5">
+        <f t="shared" ref="T12:V12" si="8">+T7-T11</f>
+        <v>1976</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="8"/>
+        <v>-27736</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="Y12" s="5">
         <f>+Y7-Y11</f>
         <v>-59458</v>
@@ -1469,15 +1516,18 @@
       <c r="S13" s="4">
         <v>-226</v>
       </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
       <c r="Y13" s="5">
         <v>-2335</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" ref="Z13" si="7">SUM(K13:N13)</f>
+        <f t="shared" ref="Z13" si="9">SUM(K13:N13)</f>
         <v>-2155</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" ref="AA13:AA15" si="8">SUM(O13:R13)</f>
+        <f t="shared" ref="AA13:AA15" si="10">SUM(O13:R13)</f>
         <v>-3897</v>
       </c>
     </row>
@@ -1486,40 +1536,52 @@
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:S14" si="9">+K12+K13</f>
+        <f t="shared" ref="K14:V14" si="11">+K12+K13</f>
         <v>-24902</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-21482</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-19442</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-16751</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-18656</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-19999</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-21816</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-20649</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-11517</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="11"/>
+        <v>1976</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="11"/>
+        <v>-27736</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Y14" s="5">
         <f>+Y12+Y13</f>
@@ -1565,6 +1627,15 @@
       <c r="S15" s="4">
         <v>0</v>
       </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
       <c r="Y15" s="5">
         <v>0</v>
       </c>
@@ -1572,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -1581,40 +1652,52 @@
         <v>32</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" ref="K16:S16" si="10">+K14-K15</f>
+        <f t="shared" ref="K16:V16" si="12">+K14-K15</f>
         <v>-24902</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-21482</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-19442</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-16751</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-18656</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-19999</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-21816</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-20649</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-11517</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="12"/>
+        <v>1976</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="12"/>
+        <v>-27736</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
         <f>+Y14-Y15</f>
@@ -1634,40 +1717,48 @@
         <v>33</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:S17" si="11">+K16/K18</f>
+        <f t="shared" ref="K17:U17" si="13">+K16/K18</f>
         <v>-0.20221838160866129</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.16870075204552409</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.14593556466674945</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.12138956800184031</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.11565417294526779</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.11617930930677366</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.10822205182749896</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.10243294591978483</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-4.0210128347922619E-2</v>
+      </c>
+      <c r="T17" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="13"/>
+        <v>-8.1050872131024937E-2</v>
       </c>
       <c r="Y17" s="6">
         <f>+Y16/Y18</f>
@@ -1723,7 +1814,9 @@
         <v>286420.37400000001</v>
       </c>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="5">
+        <v>342204.83100000001</v>
+      </c>
       <c r="V18" s="5"/>
       <c r="Y18" s="5">
         <v>119647.777</v>
@@ -1745,15 +1838,15 @@
         <v>38</v>
       </c>
       <c r="N20" s="9">
-        <f t="shared" ref="N20:P20" si="12">N5/J5-1</f>
+        <f t="shared" ref="N20:P20" si="14">N5/J5-1</f>
         <v>0.2651356993736953</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.55716993051168662</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27885178676039835</v>
       </c>
       <c r="Q20" s="9">
@@ -1768,8 +1861,16 @@
         <f>S5/O5-1</f>
         <v>5.0855983772819471</v>
       </c>
+      <c r="T20" s="9">
+        <f>T5/P5-1</f>
+        <v>0.41777370590929919</v>
+      </c>
+      <c r="U20" s="9">
+        <f>U5/Q5-1</f>
+        <v>0.99946524064171127</v>
+      </c>
       <c r="Y20" s="11">
-        <f t="shared" ref="Y20" si="13">+Y5/X5-1</f>
+        <f t="shared" ref="Y20" si="15">+Y5/X5-1</f>
         <v>0.14237935977066418</v>
       </c>
       <c r="Z20" s="11">
